--- a/biology/Zoologie/Atypus_piceus/Atypus_piceus.xlsx
+++ b/biology/Zoologie/Atypus_piceus/Atypus_piceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atypus piceus est une espèce d'araignées mygalomorphes de la famille des Atypidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atypus piceus est une espèce d'araignées mygalomorphes de la famille des Atypidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe de la France à la Russie et en Iran[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe de la France à la Russie et en Iran.
 Elle a été observée en France, en Belgique, au Luxembourg, aux Pays-Bas, en Allemagne, en Suisse, en Italie, au Liechtenstein, en Autriche, en Tchéquie, en Pologne, en Slovaquie, en Hongrie, en Slovénie, en Serbie, au Kosovo, au Monténégro, en Macédoine du Nord, en Grèce, en Bulgarie, en Roumanie, en Moldavie, en Ukraine et en Russie.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle mesure 9 mm et les femelles de 10 à 15 mm[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle mesure 9 mm et les femelles de 10 à 15 mm
 Le mâle est de couleur très sombre et la femelle brun sombre légèrement teinté de violet ; les jeunes sont semblables, à peine plus clairs. La base des chélicères est très massive, orientés vers l'avant ; crochets parallèles, orientés vers l'arrière. Les huit yeux situés à l'avant de la tête, sont groupés sur une petite imminence. Les filières postérieures sont particulièrement longues, composées de 3 segments, dont l'apical 2 fois plus long que le central est inférieurement d'un demi-anneau clair.
 La maturité sexuelle des mâles est observée en juin-juillet, les femelles sont fertiles toute l'année. Elle peut vivre dix ans.
 </t>
@@ -576,13 +592,15 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aranea picea par Sulzer en 1776. Elle est placée dans le genre Atypus par Ausserer en 1871[3].
-Aranea subterranea[4] et Atypus sulzeri[5] ont été placées en synonymie par Simon en 1873[6].
-Atypus beckii[7] a été placée en synonymie par Simon en 1914[8].
-Proatypus thaleri[9] a été placée en synonymie par Kraus et Baur en 1974[10].
-Oletera atypus[11] a été placée en synonymie par Breitling en 2022[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aranea picea par Sulzer en 1776. Elle est placée dans le genre Atypus par Ausserer en 1871.
+Aranea subterranea et Atypus sulzeri ont été placées en synonymie par Simon en 1873.
+Atypus beckii a été placée en synonymie par Simon en 1914.
+Proatypus thaleri a été placée en synonymie par Kraus et Baur en 1974.
+Oletera atypus a été placée en synonymie par Breitling en 2022.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sulzer, 1776 : Abgekürzte Geschichte der Insekten, nach dem Linnaeischen System. Winterthur, 2 vols.</t>
         </is>
